--- a/pred_ohlcv/54_21/2019-10-28 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 XRP ohlcv.xlsx
@@ -5644,7 +5644,7 @@
         <v>-1555198.60368951</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1555198.60368951</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1593791.30838951</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1126259.16548951</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1406115.78648951</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1422594.92738951</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1336594.034419331</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1376624.708511731</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1287876.698511731</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1287876.698511731</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>551469.7682748497</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>410397.1534140998</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>563751.5923757697</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>565998.8691757697</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>563811.7739757698</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>563811.7739757698</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>241421.7813341193</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>175113.2264341193</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>362984.1718203092</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>1060405.515781219</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>1060405.515781219</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>1024430.292500759</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>1024430.292500759</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 XRP ohlcv.xlsx
@@ -5748,7 +5748,7 @@
         <v>-1555198.60368951</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1593791.30838951</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1126259.16548951</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1126259.16548951</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1406115.78648951</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1292939.446519331</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1270923.661219331</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1270923.661219331</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1376624.708511731</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1287876.698511731</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1287876.698511731</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1990224.73787685</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>551469.7682748497</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>586357.9309484798</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>410397.1534140998</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>676789.3144140998</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>653354.0514140998</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>653354.0514140998</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>563751.5923757697</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>565998.8691757697</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>563811.7739757698</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>563811.7739757698</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>461869.6296217192</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>168900.5017341193</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>241421.7813341193</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>175113.2264341193</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>362984.1718203092</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>444548.3113812192</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>444548.3113812192</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>1088691.717081219</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>1060405.515781219</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>1060405.515781219</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>1024430.292500759</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>1024430.292500759</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>670320.3454007591</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>730010.0565007591</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>730010.0565007591</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>730010.0565007591</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>730010.0565007591</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>730010.0565007591</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>678105.3218007591</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
